--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -104,12 +104,18 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
     <t>DO</t>
   </si>
   <si>
+    <t>PH</t>
+  </si>
+  <si>
     <t>M3</t>
   </si>
   <si>
@@ -119,9 +125,6 @@
     <t>M2</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>Staff_2</t>
   </si>
   <si>
@@ -129,9 +132,6 @@
   </si>
   <si>
     <t>Staff_4</t>
-  </si>
-  <si>
-    <t>PH</t>
   </si>
   <si>
     <t>Staff_5</t>
@@ -294,260 +294,260 @@
         <v>30</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>34</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AB2" t="s" s="0">
         <v>32</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="X3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y3" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AA3" t="s" s="0">
         <v>35</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U4" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V4" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="W4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AC4" t="s" s="0">
         <v>32</v>
@@ -555,91 +555,91 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y5" t="s" s="0">
         <v>34</v>
       </c>
       <c r="Z5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AC5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -650,85 +650,85 @@
         <v>30</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V6" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="X6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -739,85 +739,85 @@
         <v>30</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Q7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="U7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V7" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="W7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB7" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AC7" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -825,37 +825,37 @@
         <v>42</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s" s="0">
         <v>35</v>
@@ -864,49 +864,49 @@
         <v>34</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U8" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="W8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z8" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -914,85 +914,85 @@
         <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s" s="0">
         <v>31</v>
       </c>
       <c r="S9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="V9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="W9" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="s" s="0">
         <v>35</v>
@@ -1003,88 +1003,88 @@
         <v>44</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O10" t="s" s="0">
         <v>32</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R10" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V10" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="43">
   <si>
     <t>Staff</t>
   </si>
@@ -110,22 +110,16 @@
     <t>A1</t>
   </si>
   <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>PH</t>
-  </si>
-  <si>
     <t>M3</t>
   </si>
   <si>
+    <t>Staff_2</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>A2</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Staff_2</t>
   </si>
   <si>
     <t>Staff_3</t>
@@ -297,19 +291,19 @@
         <v>30</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s" s="0">
         <v>30</v>
@@ -318,58 +312,58 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s" s="0">
         <v>31</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s" s="0">
         <v>31</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="W2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC2" t="s" s="0">
         <v>30</v>
@@ -377,10 +371,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>32</v>
@@ -389,242 +383,242 @@
         <v>30</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y3" t="s" s="0">
         <v>34</v>
       </c>
       <c r="Z3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="S4" t="s" s="0">
         <v>32</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U4" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="V4" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="W4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB4" t="s" s="0">
         <v>31</v>
       </c>
       <c r="AC4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s" s="0">
         <v>32</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s" s="0">
         <v>35</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y5" t="s" s="0">
         <v>34</v>
@@ -639,45 +633,45 @@
         <v>31</v>
       </c>
       <c r="AC5" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s" s="0">
         <v>34</v>
@@ -692,99 +686,99 @@
         <v>30</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U6" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="V6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="W6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="X6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Y6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="Z6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AA6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="AB6" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="V6" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="W6" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="X6" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="Y6" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="Z6" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="AA6" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="AB6" t="s" s="0">
-        <v>31</v>
-      </c>
       <c r="AC6" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s" s="0">
         <v>31</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Q7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S7" t="s" s="0">
         <v>32</v>
@@ -796,25 +790,25 @@
         <v>31</v>
       </c>
       <c r="V7" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="W7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA7" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB7" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AC7" t="s" s="0">
         <v>30</v>
@@ -822,123 +816,123 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="N8" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="N8" t="s" s="0">
-        <v>34</v>
-      </c>
       <c r="O8" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U8" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z8" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K9" t="s" s="0">
         <v>30</v>
@@ -947,84 +941,84 @@
         <v>32</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X9" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>32</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s" s="0">
         <v>34</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s" s="0">
         <v>30</v>
@@ -1033,58 +1027,58 @@
         <v>34</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N10" t="s" s="0">
         <v>31</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s" s="0">
         <v>32</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V10" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC10" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="44">
   <si>
     <t>Staff</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Staff_1</t>
+  </si>
+  <si>
+    <t>DO</t>
   </si>
   <si>
     <t>M1</t>
@@ -288,797 +291,797 @@
         <v>30</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="X3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y3" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Z3" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="W5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="X5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y5" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Z5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AC5" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="V6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="X6" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Y6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Q7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="X7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z8" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S9" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V9" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="X9" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>30</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P10" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R10" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="V10" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC10" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -107,22 +107,22 @@
     <t>DO</t>
   </si>
   <si>
+    <t>M3</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>M3</t>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
   <si>
     <t>Staff_2</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>A2</t>
   </si>
   <si>
     <t>Staff_3</t>
@@ -294,40 +294,40 @@
         <v>31</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
         <v>31</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s" s="0">
         <v>30</v>
@@ -336,19 +336,19 @@
         <v>31</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W2" t="s" s="0">
         <v>30</v>
@@ -357,108 +357,108 @@
         <v>31</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s" s="0">
         <v>31</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s" s="0">
         <v>31</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="X3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -469,85 +469,85 @@
         <v>30</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>31</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="s" s="0">
         <v>31</v>
       </c>
       <c r="AB4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -558,85 +558,85 @@
         <v>30</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O5" t="s" s="0">
         <v>31</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X5" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA5" t="s" s="0">
         <v>31</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -647,85 +647,85 @@
         <v>30</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V6" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="X6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -733,85 +733,85 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S7" t="s" s="0">
         <v>31</v>
       </c>
       <c r="T7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC7" t="s" s="0">
         <v>31</v>
@@ -828,82 +828,82 @@
         <v>31</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s" s="0">
         <v>31</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z8" t="s" s="0">
         <v>31</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         <v>30</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" t="s" s="0">
         <v>31</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S9" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V9" t="s" s="0">
         <v>31</v>
@@ -980,19 +980,19 @@
         <v>31</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1000,22 +1000,22 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s" s="0">
         <v>31</v>
@@ -1024,64 +1024,64 @@
         <v>30</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P10" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R10" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V10" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Y10" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC10" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -107,22 +107,22 @@
     <t>DO</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>M3</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>A1</t>
+    <t>Staff_2</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
     <t>A2</t>
-  </si>
-  <si>
-    <t>Staff_2</t>
   </si>
   <si>
     <t>Staff_3</t>
@@ -294,40 +294,40 @@
         <v>31</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s" s="0">
         <v>31</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s" s="0">
         <v>30</v>
@@ -336,19 +336,19 @@
         <v>31</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W2" t="s" s="0">
         <v>30</v>
@@ -357,108 +357,108 @@
         <v>31</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s" s="0">
         <v>31</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y3" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z3" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -469,85 +469,85 @@
         <v>30</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>31</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -555,88 +555,88 @@
         <v>38</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>32</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X5" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC5" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -644,13 +644,13 @@
         <v>39</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>32</v>
@@ -659,31 +659,31 @@
         <v>32</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s" s="0">
         <v>32</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s" s="0">
         <v>33</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P6" t="s" s="0">
         <v>30</v>
@@ -692,40 +692,40 @@
         <v>32</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V6" t="s" s="0">
         <v>32</v>
       </c>
       <c r="W6" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X6" t="s" s="0">
         <v>32</v>
       </c>
       <c r="Y6" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -736,73 +736,73 @@
         <v>30</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>32</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>32</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>32</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q7" t="s" s="0">
         <v>32</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T7" t="s" s="0">
         <v>32</v>
       </c>
       <c r="U7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V7" t="s" s="0">
         <v>32</v>
       </c>
       <c r="W7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z7" t="s" s="0">
         <v>32</v>
@@ -811,10 +811,10 @@
         <v>32</v>
       </c>
       <c r="AB7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -822,88 +822,88 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s" s="0">
         <v>35</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s" s="0">
         <v>32</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S8" t="s" s="0">
         <v>32</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="U8" t="s" s="0">
         <v>35</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Z8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AB8" t="s" s="0">
         <v>33</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -911,67 +911,67 @@
         <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>31</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S9" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V9" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="W9" t="s" s="0">
         <v>30</v>
@@ -980,16 +980,16 @@
         <v>31</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC9" t="s" s="0">
         <v>32</v>
@@ -1000,10 +1000,10 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>32</v>
@@ -1012,55 +1012,55 @@
         <v>32</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s" s="0">
         <v>30</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M10" t="s" s="0">
         <v>31</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R10" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U10" t="s" s="0">
         <v>35</v>
       </c>
       <c r="V10" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="W10" t="s" s="0">
         <v>30</v>
@@ -1069,19 +1069,19 @@
         <v>31</v>
       </c>
       <c r="Y10" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AC10" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -119,10 +119,10 @@
     <t>Staff_2</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>A2</t>
   </si>
   <si>
     <t>Staff_3</t>
@@ -312,7 +312,7 @@
         <v>31</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
         <v>31</v>
@@ -321,7 +321,7 @@
         <v>31</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
         <v>32</v>
@@ -330,19 +330,19 @@
         <v>33</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s" s="0">
         <v>31</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U2" t="s" s="0">
         <v>32</v>
@@ -351,7 +351,7 @@
         <v>31</v>
       </c>
       <c r="W2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X2" t="s" s="0">
         <v>31</v>
@@ -369,7 +369,7 @@
         <v>32</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -380,85 +380,85 @@
         <v>30</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>31</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s" s="0">
         <v>31</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s" s="0">
         <v>31</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R3" t="s" s="0">
         <v>31</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="X3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y3" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Z3" t="s" s="0">
         <v>31</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -466,10 +466,10 @@
         <v>37</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>31</v>
@@ -478,13 +478,13 @@
         <v>31</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>32</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s" s="0">
         <v>31</v>
@@ -493,10 +493,10 @@
         <v>31</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s" s="0">
         <v>31</v>
@@ -508,7 +508,7 @@
         <v>33</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q4" t="s" s="0">
         <v>31</v>
@@ -517,10 +517,10 @@
         <v>31</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U4" t="s" s="0">
         <v>32</v>
@@ -532,16 +532,16 @@
         <v>31</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z4" t="s" s="0">
         <v>31</v>
       </c>
       <c r="AA4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AB4" t="s" s="0">
         <v>32</v>
@@ -555,10 +555,10 @@
         <v>38</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>31</v>
@@ -570,7 +570,7 @@
         <v>33</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>32</v>
@@ -579,7 +579,7 @@
         <v>31</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s" s="0">
         <v>30</v>
@@ -594,43 +594,43 @@
         <v>33</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W5" t="s" s="0">
         <v>31</v>
       </c>
       <c r="X5" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z5" t="s" s="0">
         <v>31</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AB5" t="s" s="0">
         <v>33</v>
@@ -644,40 +644,40 @@
         <v>39</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>32</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s" s="0">
         <v>32</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N6" t="s" s="0">
         <v>33</v>
@@ -686,19 +686,19 @@
         <v>32</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R6" t="s" s="0">
         <v>32</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U6" t="s" s="0">
         <v>33</v>
@@ -710,22 +710,22 @@
         <v>32</v>
       </c>
       <c r="X6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y6" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB6" t="s" s="0">
         <v>33</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -733,13 +733,13 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>32</v>
@@ -754,25 +754,25 @@
         <v>32</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s" s="0">
         <v>32</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P7" t="s" s="0">
         <v>33</v>
@@ -781,7 +781,7 @@
         <v>32</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S7" t="s" s="0">
         <v>32</v>
@@ -790,16 +790,16 @@
         <v>32</v>
       </c>
       <c r="U7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V7" t="s" s="0">
         <v>32</v>
       </c>
       <c r="W7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="s" s="0">
         <v>32</v>
@@ -825,85 +825,85 @@
         <v>33</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s" s="0">
         <v>32</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P8" t="s" s="0">
         <v>33</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U8" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X8" t="s" s="0">
         <v>32</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z8" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -911,55 +911,55 @@
         <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s" s="0">
         <v>31</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P9" t="s" s="0">
         <v>31</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="S9" t="s" s="0">
         <v>31</v>
@@ -968,28 +968,28 @@
         <v>33</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="V9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X9" t="s" s="0">
         <v>31</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AC9" t="s" s="0">
         <v>32</v>
@@ -1000,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>31</v>
@@ -1009,79 +1009,79 @@
         <v>32</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s" s="0">
         <v>33</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P10" t="s" s="0">
         <v>33</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="R10" t="s" s="0">
         <v>36</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V10" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Y10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AC10" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -107,22 +107,22 @@
     <t>DO</t>
   </si>
   <si>
+    <t>M3</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>M3</t>
-  </si>
-  <si>
     <t>Staff_2</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>A2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Staff_3</t>
@@ -294,79 +294,79 @@
         <v>31</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
         <v>31</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s" s="0">
         <v>31</v>
       </c>
       <c r="W2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z2" t="s" s="0">
         <v>31</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC2" t="s" s="0">
         <v>30</v>
@@ -380,85 +380,85 @@
         <v>30</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>31</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="s" s="0">
         <v>31</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X3" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y3" t="s" s="0">
         <v>31</v>
       </c>
       <c r="Z3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -466,64 +466,64 @@
         <v>37</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>31</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s" s="0">
         <v>31</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V4" t="s" s="0">
         <v>31</v>
@@ -532,22 +532,22 @@
         <v>31</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -555,88 +555,88 @@
         <v>38</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>31</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s" s="0">
         <v>31</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Y5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z5" t="s" s="0">
         <v>31</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AC5" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -647,85 +647,85 @@
         <v>30</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V6" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="W6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X6" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Y6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -733,88 +733,88 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Z7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA7" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AB7" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AC7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -822,88 +822,88 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="U8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z8" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -911,88 +911,88 @@
         <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S9" t="s" s="0">
         <v>31</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="V9" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="W9" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -1006,13 +1006,13 @@
         <v>31</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s" s="0">
         <v>32</v>
@@ -1021,67 +1021,67 @@
         <v>32</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O10" t="s" s="0">
         <v>35</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="R10" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="U10" t="s" s="0">
         <v>36</v>
       </c>
       <c r="V10" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="s" s="0">
         <v>36</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AC10" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="45">
   <si>
     <t>Staff</t>
   </si>
@@ -104,34 +104,37 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>DO</t>
   </si>
   <si>
+    <t>PH</t>
+  </si>
+  <si>
     <t>M3</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>Staff_2</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Staff_3</t>
+  </si>
+  <si>
+    <t>Staff_4</t>
+  </si>
+  <si>
+    <t>Staff_5</t>
+  </si>
+  <si>
     <t>A2</t>
-  </si>
-  <si>
-    <t>Staff_3</t>
-  </si>
-  <si>
-    <t>Staff_4</t>
-  </si>
-  <si>
-    <t>Staff_5</t>
   </si>
   <si>
     <t>Staff_6</t>
@@ -297,64 +300,64 @@
         <v>32</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R2" t="s" s="0">
         <v>32</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W2" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y2" t="s" s="0">
         <v>32</v>
@@ -363,10 +366,10 @@
         <v>31</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AC2" t="s" s="0">
         <v>30</v>
@@ -374,43 +377,43 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>32</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s" s="0">
         <v>36</v>
@@ -419,46 +422,46 @@
         <v>32</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s" s="0">
         <v>32</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X3" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y3" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Z3" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -466,88 +469,88 @@
         <v>37</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="V4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB4" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -558,85 +561,85 @@
         <v>32</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s" s="0">
         <v>33</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Y5" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Z5" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -647,197 +650,197 @@
         <v>30</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s" s="0">
         <v>31</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V6" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="W6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X6" t="s" s="0">
         <v>31</v>
       </c>
       <c r="Y6" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q7" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X7" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Z7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA7" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AB7" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AC7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s" s="0">
         <v>30</v>
@@ -846,111 +849,111 @@
         <v>31</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U8" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Z8" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="P9" t="s" s="0">
         <v>32</v>
@@ -959,48 +962,48 @@
         <v>30</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S9" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V9" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W9" t="s" s="0">
         <v>32</v>
       </c>
       <c r="X9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>31</v>
@@ -1012,76 +1015,76 @@
         <v>32</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s" s="0">
         <v>30</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s" s="0">
         <v>30</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V10" t="s" s="0">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Y10" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="44">
   <si>
     <t>Staff</t>
   </si>
@@ -104,24 +104,24 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>PH</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
     <t>Staff_2</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>Staff_5</t>
-  </si>
-  <si>
-    <t>A2</t>
   </si>
   <si>
     <t>Staff_6</t>
@@ -306,70 +303,70 @@
         <v>33</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>33</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s" s="0">
         <v>31</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W2" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC2" t="s" s="0">
         <v>30</v>
@@ -377,91 +374,91 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s" s="0">
         <v>31</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="U3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="X3" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y3" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Z3" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AB3" t="s" s="0">
         <v>36</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -469,28 +466,28 @@
         <v>37</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s" s="0">
         <v>30</v>
@@ -499,58 +496,58 @@
         <v>32</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="V4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="AB4" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AC4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -558,88 +555,88 @@
         <v>38</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="X5" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Y5" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Z5" t="s" s="0">
         <v>36</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AC5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -647,263 +644,263 @@
         <v>39</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>31</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W6" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="X6" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Y6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q7" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R7" t="s" s="0">
         <v>31</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U7" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W7" t="s" s="0">
         <v>32</v>
       </c>
       <c r="X7" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q8" t="s" s="0">
         <v>31</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="U8" t="s" s="0">
         <v>36</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Z8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AC8" t="s" s="0">
         <v>32</v>
@@ -911,141 +908,141 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>36</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P9" t="s" s="0">
         <v>32</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="V9" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W9" t="s" s="0">
         <v>32</v>
       </c>
       <c r="X9" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z9" t="s" s="0">
         <v>36</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s" s="0">
         <v>36</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K10" t="s" s="0">
         <v>30</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q10" t="s" s="0">
         <v>30</v>
@@ -1057,34 +1054,34 @@
         <v>32</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="V10" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Y10" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Z10" t="s" s="0">
         <v>32</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AC10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -119,10 +119,10 @@
     <t>Staff_2</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>A2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Staff_3</t>
@@ -294,13 +294,13 @@
         <v>31</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>33</v>
@@ -309,13 +309,13 @@
         <v>33</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>33</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s" s="0">
         <v>30</v>
@@ -324,19 +324,19 @@
         <v>30</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S2" t="s" s="0">
         <v>30</v>
@@ -345,31 +345,31 @@
         <v>30</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="V2" t="s" s="0">
         <v>32</v>
       </c>
       <c r="W2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB2" t="s" s="0">
         <v>33</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -377,34 +377,34 @@
         <v>34</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>33</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s" s="0">
         <v>31</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s" s="0">
         <v>32</v>
@@ -419,46 +419,46 @@
         <v>33</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="X3" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Y3" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Z3" t="s" s="0">
         <v>36</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>32</v>
@@ -475,7 +475,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>33</v>
@@ -487,67 +487,67 @@
         <v>33</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="V4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AB4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="AC4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -555,25 +555,25 @@
         <v>38</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>33</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s" s="0">
         <v>33</v>
@@ -585,58 +585,58 @@
         <v>33</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R5" t="s" s="0">
         <v>33</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U5" t="s" s="0">
         <v>31</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="X5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y5" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AC5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -644,31 +644,31 @@
         <v>39</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>33</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s" s="0">
         <v>33</v>
@@ -677,16 +677,16 @@
         <v>33</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O6" t="s" s="0">
         <v>33</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q6" t="s" s="0">
         <v>32</v>
@@ -701,31 +701,31 @@
         <v>33</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V6" t="s" s="0">
         <v>33</v>
       </c>
       <c r="W6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X6" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -739,49 +739,49 @@
         <v>30</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S7" t="s" s="0">
         <v>30</v>
@@ -790,7 +790,7 @@
         <v>30</v>
       </c>
       <c r="U7" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="V7" t="s" s="0">
         <v>30</v>
@@ -802,7 +802,7 @@
         <v>31</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Z7" t="s" s="0">
         <v>30</v>
@@ -811,10 +811,10 @@
         <v>30</v>
       </c>
       <c r="AB7" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AC7" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -822,40 +822,40 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N8" t="s" s="0">
         <v>31</v>
@@ -864,46 +864,46 @@
         <v>31</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U8" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V8" t="s" s="0">
         <v>32</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AB8" t="s" s="0">
         <v>31</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -911,88 +911,88 @@
         <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" t="s" s="0">
         <v>33</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S9" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="U9" t="s" s="0">
         <v>35</v>
       </c>
       <c r="V9" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W9" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X9" t="s" s="0">
         <v>31</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -1000,43 +1000,43 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s" s="0">
         <v>33</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s" s="0">
         <v>36</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O10" t="s" s="0">
         <v>31</v>
@@ -1045,43 +1045,43 @@
         <v>33</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R10" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T10" t="s" s="0">
         <v>31</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="V10" t="s" s="0">
         <v>36</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AB10" t="s" s="0">
         <v>31</v>
       </c>
       <c r="AC10" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -107,13 +107,13 @@
     <t>A1</t>
   </si>
   <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M3</t>
-  </si>
-  <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>Staff_2</t>
@@ -291,31 +291,31 @@
         <v>30</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>33</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>33</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s" s="0">
         <v>30</v>
@@ -324,19 +324,19 @@
         <v>30</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S2" t="s" s="0">
         <v>30</v>
@@ -345,31 +345,31 @@
         <v>30</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="W2" t="s" s="0">
         <v>33</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="s" s="0">
         <v>32</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -380,13 +380,13 @@
         <v>30</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>35</v>
@@ -395,7 +395,7 @@
         <v>33</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>30</v>
@@ -404,13 +404,13 @@
         <v>31</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s" s="0">
         <v>33</v>
@@ -419,46 +419,46 @@
         <v>33</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S3" t="s" s="0">
         <v>35</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="X3" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y3" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Z3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -466,61 +466,61 @@
         <v>37</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s" s="0">
         <v>32</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O4" t="s" s="0">
         <v>31</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U4" t="s" s="0">
         <v>30</v>
@@ -529,25 +529,25 @@
         <v>33</v>
       </c>
       <c r="W4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Z4" t="s" s="0">
         <v>32</v>
       </c>
       <c r="AA4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="AC4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -558,82 +558,82 @@
         <v>35</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>33</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s" s="0">
         <v>31</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s" s="0">
         <v>33</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="X5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Y5" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z5" t="s" s="0">
         <v>35</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AC5" t="s" s="0">
         <v>30</v>
@@ -644,52 +644,52 @@
         <v>39</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>33</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P6" t="s" s="0">
         <v>36</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R6" t="s" s="0">
         <v>31</v>
@@ -698,28 +698,28 @@
         <v>33</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U6" t="s" s="0">
         <v>35</v>
       </c>
       <c r="V6" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W6" t="s" s="0">
         <v>36</v>
       </c>
       <c r="X6" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y6" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB6" t="s" s="0">
         <v>33</v>
@@ -733,49 +733,49 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q7" t="s" s="0">
         <v>31</v>
@@ -796,25 +796,25 @@
         <v>30</v>
       </c>
       <c r="W7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="AA7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB7" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AC7" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -822,10 +822,10 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>36</v>
@@ -834,52 +834,52 @@
         <v>36</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s" s="0">
         <v>36</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L8" t="s" s="0">
         <v>36</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="S8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U8" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V8" t="s" s="0">
         <v>32</v>
@@ -888,7 +888,7 @@
         <v>32</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Y8" t="s" s="0">
         <v>36</v>
@@ -900,10 +900,10 @@
         <v>30</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -911,40 +911,40 @@
         <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>35</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N9" t="s" s="0">
         <v>30</v>
@@ -953,10 +953,10 @@
         <v>36</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R9" t="s" s="0">
         <v>35</v>
@@ -968,31 +968,31 @@
         <v>33</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V9" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W9" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X9" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1000,61 +1000,61 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>35</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s" s="0">
         <v>35</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R10" t="s" s="0">
         <v>32</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U10" t="s" s="0">
         <v>31</v>
@@ -1063,25 +1063,25 @@
         <v>36</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="s" s="0">
         <v>35</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC10" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="45">
   <si>
     <t>Staff</t>
   </si>
@@ -104,18 +104,18 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>M3</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>DO</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
     <t>Staff_2</t>
   </si>
   <si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Staff_9</t>
+  </si>
+  <si>
+    <t>PH</t>
   </si>
 </sst>
 </file>
@@ -291,16 +294,16 @@
         <v>30</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>31</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>32</v>
@@ -309,7 +312,7 @@
         <v>33</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>33</v>
@@ -318,58 +321,58 @@
         <v>31</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U2" t="s" s="0">
         <v>32</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W2" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -377,7 +380,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>35</v>
@@ -386,19 +389,19 @@
         <v>35</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>31</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s" s="0">
         <v>31</v>
@@ -407,58 +410,58 @@
         <v>35</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R3" t="s" s="0">
         <v>31</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="W3" t="s" s="0">
         <v>35</v>
       </c>
       <c r="X3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y3" t="s" s="0">
         <v>31</v>
       </c>
       <c r="Z3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -466,46 +469,46 @@
         <v>37</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>32</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>32</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s" s="0">
         <v>32</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s" s="0">
         <v>32</v>
@@ -514,28 +517,28 @@
         <v>32</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z4" t="s" s="0">
         <v>32</v>
@@ -544,7 +547,7 @@
         <v>33</v>
       </c>
       <c r="AB4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AC4" t="s" s="0">
         <v>32</v>
@@ -555,76 +558,76 @@
         <v>38</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>35</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s" s="0">
         <v>35</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z5" t="s" s="0">
         <v>35</v>
@@ -633,10 +636,10 @@
         <v>35</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AC5" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -644,31 +647,31 @@
         <v>39</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s" s="0">
         <v>32</v>
@@ -677,55 +680,55 @@
         <v>32</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T6" t="s" s="0">
         <v>32</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V6" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="W6" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="X6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA6" t="s" s="0">
         <v>32</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -733,85 +736,85 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q7" t="s" s="0">
         <v>31</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="X7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA7" t="s" s="0">
         <v>31</v>
       </c>
       <c r="AB7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AC7" t="s" s="0">
         <v>33</v>
@@ -825,7 +828,7 @@
         <v>36</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>36</v>
@@ -834,13 +837,13 @@
         <v>36</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s" s="0">
         <v>35</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s" s="0">
         <v>31</v>
@@ -849,43 +852,43 @@
         <v>36</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P8" t="s" s="0">
         <v>36</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="U8" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X8" t="s" s="0">
         <v>36</v>
@@ -897,13 +900,13 @@
         <v>36</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -911,10 +914,10 @@
         <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>35</v>
@@ -923,76 +926,76 @@
         <v>35</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s" s="0">
         <v>36</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="R9" t="s" s="0">
         <v>35</v>
       </c>
       <c r="S9" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="V9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X9" t="s" s="0">
         <v>35</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Z9" t="s" s="0">
         <v>35</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1000,34 +1003,34 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>35</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s" s="0">
         <v>36</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s" s="0">
         <v>31</v>
@@ -1036,49 +1039,49 @@
         <v>30</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O10" t="s" s="0">
         <v>33</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="R10" t="s" s="0">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="V10" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y10" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AC10" t="s" s="0">
         <v>33</v>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -104,25 +104,25 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>M3</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>DO</t>
-  </si>
-  <si>
     <t>Staff_2</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>A2</t>
   </si>
   <si>
     <t>Staff_3</t>
@@ -300,43 +300,43 @@
         <v>31</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R2" t="s" s="0">
         <v>32</v>
@@ -345,51 +345,51 @@
         <v>31</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="W2" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="s" s="0">
         <v>31</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>31</v>
@@ -398,34 +398,34 @@
         <v>30</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R3" t="s" s="0">
         <v>31</v>
@@ -434,34 +434,34 @@
         <v>32</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X3" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Y3" t="s" s="0">
         <v>31</v>
       </c>
       <c r="Z3" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -472,61 +472,61 @@
         <v>31</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>32</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s" s="0">
         <v>31</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V4" t="s" s="0">
         <v>32</v>
@@ -535,19 +535,19 @@
         <v>31</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA4" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="s" s="0">
         <v>32</v>
@@ -558,73 +558,73 @@
         <v>38</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>35</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>35</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s" s="0">
         <v>35</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N5" t="s" s="0">
         <v>35</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q5" t="s" s="0">
         <v>32</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X5" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Y5" t="s" s="0">
         <v>35</v>
@@ -633,13 +633,13 @@
         <v>35</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AC5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -647,88 +647,88 @@
         <v>39</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V6" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W6" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X6" t="s" s="0">
         <v>32</v>
       </c>
       <c r="Y6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z6" t="s" s="0">
         <v>35</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -736,88 +736,88 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O7" t="s" s="0">
         <v>31</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U7" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="V7" t="s" s="0">
         <v>31</v>
       </c>
       <c r="W7" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="X7" t="s" s="0">
         <v>31</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z7" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB7" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AC7" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -825,88 +825,88 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U8" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z8" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="s" s="0">
         <v>31</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -914,13 +914,13 @@
         <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>35</v>
@@ -929,40 +929,40 @@
         <v>30</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s" s="0">
         <v>35</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q9" t="s" s="0">
         <v>35</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="S9" t="s" s="0">
         <v>33</v>
@@ -971,31 +971,31 @@
         <v>30</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="V9" t="s" s="0">
         <v>32</v>
       </c>
       <c r="W9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X9" t="s" s="0">
         <v>35</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA9" t="s" s="0">
         <v>35</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -1003,88 +1003,88 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s" s="0">
         <v>32</v>
       </c>
       <c r="K10" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="N10" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="O10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="P10" t="s" s="0">
         <v>44</v>
-      </c>
-      <c r="L10" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="M10" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="N10" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="O10" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="P10" t="s" s="0">
-        <v>31</v>
       </c>
       <c r="Q10" t="s" s="0">
         <v>44</v>
       </c>
       <c r="R10" t="s" s="0">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="V10" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z10" t="s" s="0">
         <v>44</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AC10" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -104,25 +104,25 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Staff_2</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>A2</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>Staff_2</t>
   </si>
   <si>
     <t>Staff_3</t>
@@ -303,61 +303,61 @@
         <v>32</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s" s="0">
         <v>31</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W2" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y2" t="s" s="0">
         <v>32</v>
@@ -369,78 +369,78 @@
         <v>31</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>32</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s" s="0">
         <v>32</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="s" s="0">
         <v>35</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W3" t="s" s="0">
         <v>32</v>
@@ -449,19 +449,19 @@
         <v>30</v>
       </c>
       <c r="Y3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z3" t="s" s="0">
         <v>31</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -469,13 +469,13 @@
         <v>37</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>31</v>
@@ -484,70 +484,70 @@
         <v>31</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s" s="0">
         <v>31</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S4" t="s" s="0">
         <v>31</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V4" t="s" s="0">
         <v>32</v>
       </c>
       <c r="W4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="s" s="0">
         <v>31</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA4" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AB4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC4" t="s" s="0">
         <v>32</v>
@@ -558,88 +558,88 @@
         <v>38</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q5" t="s" s="0">
         <v>32</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="X5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Y5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -647,13 +647,13 @@
         <v>39</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>35</v>
@@ -665,13 +665,13 @@
         <v>33</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s" s="0">
         <v>30</v>
@@ -680,55 +680,55 @@
         <v>35</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" t="s" s="0">
         <v>31</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V6" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="W6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y6" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -736,85 +736,85 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U7" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="V7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W7" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="X7" t="s" s="0">
         <v>31</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z7" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB7" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AC7" t="s" s="0">
         <v>30</v>
@@ -825,88 +825,88 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s" s="0">
         <v>32</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U8" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V8" t="s" s="0">
         <v>31</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="X8" t="s" s="0">
         <v>31</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z8" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -914,49 +914,49 @@
         <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q9" t="s" s="0">
         <v>35</v>
@@ -968,28 +968,28 @@
         <v>33</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V9" t="s" s="0">
         <v>32</v>
       </c>
       <c r="W9" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X9" t="s" s="0">
         <v>35</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB9" t="s" s="0">
         <v>32</v>
@@ -1003,88 +1003,88 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s" s="0">
         <v>32</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="Q10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="R10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="S10" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="Q10" t="s" s="0">
+      <c r="T10" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="U10" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="V10" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="W10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="X10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="Y10" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="R10" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="S10" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="T10" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="U10" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="V10" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="W10" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="X10" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="Y10" t="s" s="0">
-        <v>33</v>
-      </c>
       <c r="Z10" t="s" s="0">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -104,16 +104,16 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>DO</t>
   </si>
   <si>
-    <t>A1</t>
+    <t>M1</t>
   </si>
   <si>
     <t>M3</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>Staff_2</t>
@@ -294,7 +294,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>31</v>
@@ -303,25 +303,25 @@
         <v>32</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>32</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s" s="0">
         <v>31</v>
@@ -333,28 +333,28 @@
         <v>32</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s" s="0">
         <v>32</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V2" t="s" s="0">
         <v>32</v>
       </c>
       <c r="W2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X2" t="s" s="0">
         <v>31</v>
@@ -366,13 +366,13 @@
         <v>32</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -380,88 +380,88 @@
         <v>34</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>32</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s" s="0">
         <v>35</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="R3" t="s" s="0">
         <v>35</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Y3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AA3" t="s" s="0">
         <v>32</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -469,28 +469,28 @@
         <v>37</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>32</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s" s="0">
         <v>33</v>
@@ -502,10 +502,10 @@
         <v>32</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s" s="0">
         <v>31</v>
@@ -514,19 +514,19 @@
         <v>31</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V4" t="s" s="0">
         <v>32</v>
@@ -535,19 +535,19 @@
         <v>30</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="s" s="0">
         <v>31</v>
       </c>
       <c r="AB4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="s" s="0">
         <v>32</v>
@@ -561,31 +561,31 @@
         <v>31</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>32</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s" s="0">
         <v>32</v>
@@ -597,49 +597,49 @@
         <v>33</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q5" t="s" s="0">
         <v>32</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T5" t="s" s="0">
         <v>35</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="X5" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y5" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Z5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA5" t="s" s="0">
         <v>32</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -647,88 +647,88 @@
         <v>39</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>35</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V6" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="W6" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X6" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -736,85 +736,85 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s" s="0">
         <v>31</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s" s="0">
         <v>31</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U7" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="s" s="0">
         <v>31</v>
       </c>
       <c r="Z7" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA7" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC7" t="s" s="0">
         <v>30</v>
@@ -825,43 +825,43 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>36</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s" s="0">
         <v>35</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O8" t="s" s="0">
         <v>31</v>
@@ -870,43 +870,43 @@
         <v>36</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U8" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V8" t="s" s="0">
         <v>31</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Z8" t="s" s="0">
         <v>36</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AB8" t="s" s="0">
         <v>32</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -914,16 +914,16 @@
         <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>36</v>
@@ -932,19 +932,19 @@
         <v>36</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s" s="0">
         <v>32</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M9" t="s" s="0">
         <v>33</v>
@@ -956,46 +956,46 @@
         <v>32</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S9" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="V9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="W9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X9" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -1003,88 +1003,88 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s" s="0">
         <v>32</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s" s="0">
         <v>33</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M10" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="N10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="O10" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="P10" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="N10" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="O10" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="P10" t="s" s="0">
-        <v>32</v>
-      </c>
       <c r="Q10" t="s" s="0">
         <v>31</v>
       </c>
       <c r="R10" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="T10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="U10" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="V10" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="W10" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="T10" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="U10" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="V10" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="W10" t="s" s="0">
-        <v>32</v>
-      </c>
       <c r="X10" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y10" t="s" s="0">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA10" t="s" s="0">
         <v>30</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AC10" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="44">
   <si>
     <t>Staff</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>Staff_9</t>
-  </si>
-  <si>
-    <t>PH</t>
   </si>
 </sst>
 </file>
@@ -294,22 +291,22 @@
         <v>30</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>32</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>32</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s" s="0">
         <v>30</v>
@@ -318,10 +315,10 @@
         <v>30</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s" s="0">
         <v>31</v>
@@ -330,7 +327,7 @@
         <v>32</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s" s="0">
         <v>30</v>
@@ -339,16 +336,16 @@
         <v>30</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s" s="0">
         <v>32</v>
@@ -357,16 +354,16 @@
         <v>32</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z2" t="s" s="0">
         <v>32</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB2" t="s" s="0">
         <v>32</v>
@@ -383,16 +380,16 @@
         <v>35</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>32</v>
@@ -401,67 +398,67 @@
         <v>30</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s" s="0">
         <v>32</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s" s="0">
         <v>35</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y3" t="s" s="0">
         <v>33</v>
       </c>
       <c r="Z3" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -469,88 +466,88 @@
         <v>37</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s" s="0">
         <v>31</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="V4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -558,64 +555,64 @@
         <v>38</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>32</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s" s="0">
         <v>32</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V5" t="s" s="0">
         <v>32</v>
@@ -627,19 +624,19 @@
         <v>35</v>
       </c>
       <c r="Y5" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Z5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AC5" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -647,7 +644,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>35</v>
@@ -656,58 +653,58 @@
         <v>30</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>35</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U6" t="s" s="0">
         <v>35</v>
       </c>
       <c r="V6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W6" t="s" s="0">
         <v>31</v>
@@ -722,13 +719,13 @@
         <v>32</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -748,10 +745,10 @@
         <v>30</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>30</v>
@@ -760,10 +757,10 @@
         <v>30</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s" s="0">
         <v>30</v>
@@ -790,13 +787,13 @@
         <v>30</v>
       </c>
       <c r="T7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U7" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="V7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="W7" t="s" s="0">
         <v>30</v>
@@ -811,13 +808,13 @@
         <v>30</v>
       </c>
       <c r="AA7" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AB7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="AC7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -825,43 +822,43 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s" s="0">
         <v>36</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s" s="0">
         <v>36</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s" s="0">
         <v>31</v>
@@ -870,43 +867,43 @@
         <v>36</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U8" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z8" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AB8" t="s" s="0">
         <v>32</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -914,16 +911,16 @@
         <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>36</v>
@@ -935,67 +932,67 @@
         <v>31</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V9" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="X9" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1003,22 +1000,22 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>32</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s" s="0">
         <v>31</v>
@@ -1027,58 +1024,58 @@
         <v>31</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s" s="0">
         <v>35</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="R10" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T10" t="s" s="0">
         <v>32</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V10" t="s" s="0">
         <v>35</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y10" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB10" t="s" s="0">
         <v>36</v>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -104,25 +104,25 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
     <t>Staff_2</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>A2</t>
   </si>
   <si>
     <t>Staff_3</t>
@@ -294,82 +294,82 @@
         <v>31</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>32</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="W2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB2" t="s" s="0">
         <v>32</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -377,88 +377,88 @@
         <v>34</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>31</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="X3" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y3" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Z3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -469,7 +469,7 @@
         <v>31</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>30</v>
@@ -481,64 +481,64 @@
         <v>32</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s" s="0">
         <v>31</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q4" t="s" s="0">
         <v>32</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="W4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="s" s="0">
         <v>33</v>
@@ -555,82 +555,82 @@
         <v>38</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>35</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>36</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X5" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Y5" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AB5" t="s" s="0">
         <v>35</v>
@@ -644,88 +644,88 @@
         <v>39</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R6" t="s" s="0">
         <v>35</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V6" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="W6" t="s" s="0">
         <v>31</v>
       </c>
       <c r="X6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -733,52 +733,52 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s" s="0">
         <v>33</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s" s="0">
         <v>33</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R7" t="s" s="0">
         <v>31</v>
@@ -790,31 +790,31 @@
         <v>33</v>
       </c>
       <c r="U7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Z7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -822,16 +822,16 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>33</v>
@@ -840,16 +840,16 @@
         <v>36</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L8" t="s" s="0">
         <v>35</v>
@@ -858,49 +858,49 @@
         <v>35</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O8" t="s" s="0">
         <v>31</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Z8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC8" t="s" s="0">
         <v>35</v>
@@ -911,37 +911,37 @@
         <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>32</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M9" t="s" s="0">
         <v>30</v>
@@ -953,25 +953,25 @@
         <v>35</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="S9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="T9" t="s" s="0">
         <v>36</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V9" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="W9" t="s" s="0">
         <v>36</v>
@@ -980,19 +980,19 @@
         <v>35</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -1000,85 +1000,85 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>30</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s" s="0">
         <v>35</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V10" t="s" s="0">
         <v>35</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Y10" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC10" t="s" s="0">
         <v>31</v>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -104,12 +104,12 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>DO</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
-    <t>DO</t>
-  </si>
-  <si>
     <t>M3</t>
   </si>
   <si>
@@ -119,10 +119,10 @@
     <t>Staff_2</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>A2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Staff_3</t>
@@ -294,82 +294,82 @@
         <v>31</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
         <v>31</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB2" t="s" s="0">
         <v>32</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -377,88 +377,88 @@
         <v>34</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>35</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>33</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s" s="0">
         <v>33</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S3" t="s" s="0">
         <v>33</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Y3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z3" t="s" s="0">
         <v>33</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -466,52 +466,52 @@
         <v>37</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s" s="0">
         <v>32</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R4" t="s" s="0">
         <v>33</v>
@@ -523,31 +523,31 @@
         <v>30</v>
       </c>
       <c r="U4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="W4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AB4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -555,46 +555,46 @@
         <v>38</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>35</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P5" t="s" s="0">
         <v>30</v>
@@ -603,40 +603,40 @@
         <v>31</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="X5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Y5" t="s" s="0">
         <v>33</v>
       </c>
       <c r="Z5" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AC5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -644,64 +644,64 @@
         <v>39</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V6" t="s" s="0">
         <v>33</v>
@@ -710,22 +710,22 @@
         <v>31</v>
       </c>
       <c r="X6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -739,19 +739,19 @@
         <v>33</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>33</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s" s="0">
         <v>33</v>
@@ -760,10 +760,10 @@
         <v>33</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s" s="0">
         <v>33</v>
@@ -772,7 +772,7 @@
         <v>33</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P7" t="s" s="0">
         <v>33</v>
@@ -781,16 +781,16 @@
         <v>33</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T7" t="s" s="0">
         <v>33</v>
       </c>
       <c r="U7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V7" t="s" s="0">
         <v>32</v>
@@ -802,19 +802,19 @@
         <v>33</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z7" t="s" s="0">
         <v>31</v>
       </c>
       <c r="AA7" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AB7" t="s" s="0">
         <v>33</v>
       </c>
       <c r="AC7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -822,88 +822,88 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s" s="0">
         <v>33</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U8" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y8" t="s" s="0">
         <v>31</v>
       </c>
       <c r="Z8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -911,64 +911,64 @@
         <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>35</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s" s="0">
         <v>33</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V9" t="s" s="0">
         <v>35</v>
@@ -977,22 +977,22 @@
         <v>36</v>
       </c>
       <c r="X9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1000,88 +1000,88 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s" s="0">
         <v>30</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s" s="0">
         <v>30</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O10" t="s" s="0">
         <v>31</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="V10" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="W10" t="s" s="0">
         <v>33</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Y10" t="s" s="0">
         <v>33</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC10" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -104,12 +104,12 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>DO</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M3</t>
   </si>
   <si>
@@ -119,10 +119,10 @@
     <t>Staff_2</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>A2</t>
   </si>
   <si>
     <t>Staff_3</t>
@@ -291,7 +291,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>31</v>
@@ -300,76 +300,76 @@
         <v>32</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s" s="0">
         <v>32</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T2" t="s" s="0">
         <v>31</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W2" t="s" s="0">
         <v>33</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -377,22 +377,22 @@
         <v>34</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>33</v>
@@ -404,61 +404,61 @@
         <v>36</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s" s="0">
         <v>33</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s" s="0">
         <v>33</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W3" t="s" s="0">
         <v>36</v>
       </c>
       <c r="X3" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Z3" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="s" s="0">
         <v>33</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -466,88 +466,88 @@
         <v>37</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s" s="0">
         <v>32</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P4" t="s" s="0">
         <v>31</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="U4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W4" t="s" s="0">
         <v>32</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="AC4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -558,85 +558,85 @@
         <v>36</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s" s="0">
         <v>36</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="S5" t="s" s="0">
         <v>31</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Y5" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AC5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -644,7 +644,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>31</v>
@@ -656,10 +656,10 @@
         <v>35</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>33</v>
@@ -671,61 +671,61 @@
         <v>31</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V6" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W6" t="s" s="0">
         <v>31</v>
       </c>
       <c r="X6" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Y6" t="s" s="0">
         <v>33</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -733,22 +733,22 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>33</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>32</v>
@@ -760,10 +760,10 @@
         <v>33</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M7" t="s" s="0">
         <v>33</v>
@@ -772,16 +772,16 @@
         <v>33</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P7" t="s" s="0">
         <v>33</v>
       </c>
       <c r="Q7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S7" t="s" s="0">
         <v>33</v>
@@ -790,10 +790,10 @@
         <v>33</v>
       </c>
       <c r="U7" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W7" t="s" s="0">
         <v>33</v>
@@ -802,19 +802,19 @@
         <v>33</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z7" t="s" s="0">
         <v>31</v>
       </c>
       <c r="AA7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB7" t="s" s="0">
         <v>33</v>
       </c>
       <c r="AC7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -822,73 +822,73 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s" s="0">
         <v>33</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P8" t="s" s="0">
         <v>35</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="S8" t="s" s="0">
         <v>33</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y8" t="s" s="0">
         <v>31</v>
@@ -897,13 +897,13 @@
         <v>33</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -914,85 +914,85 @@
         <v>36</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>31</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Q9" t="s" s="0">
         <v>36</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S9" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="W9" t="s" s="0">
         <v>36</v>
       </c>
       <c r="X9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AA9" t="s" s="0">
         <v>36</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -1000,43 +1000,43 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>36</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K10" t="s" s="0">
         <v>36</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O10" t="s" s="0">
         <v>31</v>
@@ -1048,40 +1048,40 @@
         <v>35</v>
       </c>
       <c r="R10" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="V10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Y10" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AC10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -291,13 +291,13 @@
         <v>30</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>30</v>
@@ -306,16 +306,16 @@
         <v>30</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s" s="0">
         <v>30</v>
@@ -324,43 +324,43 @@
         <v>30</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="W2" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA2" t="s" s="0">
         <v>30</v>
@@ -377,55 +377,55 @@
         <v>34</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>33</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="S3" t="s" s="0">
         <v>36</v>
@@ -434,31 +434,31 @@
         <v>35</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="V3" t="s" s="0">
         <v>33</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X3" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Y3" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Z3" t="s" s="0">
         <v>36</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -466,28 +466,28 @@
         <v>37</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s" s="0">
         <v>32</v>
@@ -496,7 +496,7 @@
         <v>33</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s" s="0">
         <v>30</v>
@@ -505,19 +505,19 @@
         <v>33</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T4" t="s" s="0">
         <v>30</v>
@@ -526,25 +526,25 @@
         <v>33</v>
       </c>
       <c r="V4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="W4" t="s" s="0">
         <v>32</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AC4" t="s" s="0">
         <v>33</v>
@@ -561,79 +561,79 @@
         <v>36</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s" s="0">
         <v>36</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P5" t="s" s="0">
         <v>36</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R5" t="s" s="0">
         <v>36</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="X5" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Y5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z5" t="s" s="0">
         <v>36</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AC5" t="s" s="0">
         <v>30</v>
@@ -644,37 +644,37 @@
         <v>39</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>36</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s" s="0">
         <v>36</v>
@@ -689,22 +689,22 @@
         <v>36</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="V6" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W6" t="s" s="0">
         <v>31</v>
@@ -713,7 +713,7 @@
         <v>36</v>
       </c>
       <c r="Y6" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z6" t="s" s="0">
         <v>33</v>
@@ -722,7 +722,7 @@
         <v>36</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AC6" t="s" s="0">
         <v>35</v>
@@ -733,25 +733,25 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s" s="0">
         <v>33</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s" s="0">
         <v>33</v>
@@ -778,16 +778,16 @@
         <v>33</v>
       </c>
       <c r="Q7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U7" t="s" s="0">
         <v>33</v>
@@ -802,7 +802,7 @@
         <v>33</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z7" t="s" s="0">
         <v>31</v>
@@ -825,10 +825,10 @@
         <v>35</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>35</v>
@@ -837,31 +837,31 @@
         <v>31</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s" s="0">
         <v>33</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N8" t="s" s="0">
         <v>36</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P8" t="s" s="0">
         <v>35</v>
@@ -873,7 +873,7 @@
         <v>31</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T8" t="s" s="0">
         <v>35</v>
@@ -882,7 +882,7 @@
         <v>30</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="W8" t="s" s="0">
         <v>35</v>
@@ -891,19 +891,19 @@
         <v>35</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Z8" t="s" s="0">
         <v>33</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -911,25 +911,25 @@
         <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s" s="0">
         <v>35</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s" s="0">
         <v>36</v>
@@ -938,22 +938,22 @@
         <v>30</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q9" t="s" s="0">
         <v>36</v>
@@ -965,34 +965,34 @@
         <v>31</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="W9" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="X9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y9" t="s" s="0">
         <v>36</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s" s="0">
         <v>36</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1000,16 +1000,16 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>36</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s" s="0">
         <v>33</v>
@@ -1021,64 +1021,64 @@
         <v>31</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L10" t="s" s="0">
         <v>35</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O10" t="s" s="0">
         <v>31</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R10" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V10" t="s" s="0">
         <v>31</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Y10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AC10" t="s" s="0">
         <v>31</v>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="45">
   <si>
     <t>Staff</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>A1</t>
+  </si>
+  <si>
+    <t>PH</t>
   </si>
   <si>
     <t>Staff_2</t>
@@ -294,7 +297,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>30</v>
@@ -306,10 +309,10 @@
         <v>30</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>31</v>
@@ -330,37 +333,37 @@
         <v>30</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="s" s="0">
         <v>30</v>
@@ -374,46 +377,46 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>33</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s" s="0">
         <v>33</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s" s="0">
         <v>36</v>
@@ -422,16 +425,16 @@
         <v>31</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R3" t="s" s="0">
         <v>36</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U3" t="s" s="0">
         <v>30</v>
@@ -440,87 +443,87 @@
         <v>33</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X3" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y3" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U4" t="s" s="0">
         <v>33</v>
@@ -535,51 +538,51 @@
         <v>31</v>
       </c>
       <c r="Y4" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="AB4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>31</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s" s="0">
         <v>36</v>
@@ -588,149 +591,149 @@
         <v>36</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="T5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="X5" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Y5" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z5" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AC5" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>31</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W6" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="X6" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y6" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>33</v>
@@ -739,19 +742,19 @@
         <v>33</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s" s="0">
         <v>33</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s" s="0">
         <v>33</v>
@@ -760,10 +763,10 @@
         <v>33</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s" s="0">
         <v>33</v>
@@ -772,7 +775,7 @@
         <v>33</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P7" t="s" s="0">
         <v>33</v>
@@ -781,13 +784,13 @@
         <v>33</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T7" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U7" t="s" s="0">
         <v>33</v>
@@ -799,13 +802,13 @@
         <v>33</v>
       </c>
       <c r="X7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="s" s="0">
         <v>33</v>
@@ -814,149 +817,149 @@
         <v>33</v>
       </c>
       <c r="AC7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L8" t="s" s="0">
         <v>36</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z8" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>36</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s" s="0">
         <v>36</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R9" t="s" s="0">
         <v>36</v>
@@ -965,120 +968,120 @@
         <v>31</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="V9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="W9" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="X9" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R10" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="V10" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Y10" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC10" t="s" s="0">
         <v>31</v>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -107,12 +107,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M3</t>
+  </si>
+  <si>
     <t>DO</t>
   </si>
   <si>
-    <t>M3</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -122,10 +122,10 @@
     <t>Staff_2</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>A2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Staff_3</t>
@@ -294,16 +294,16 @@
         <v>30</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>30</v>
@@ -315,10 +315,10 @@
         <v>33</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s" s="0">
         <v>30</v>
@@ -330,7 +330,7 @@
         <v>30</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s" s="0">
         <v>33</v>
@@ -339,25 +339,25 @@
         <v>33</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="W2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="s" s="0">
         <v>34</v>
@@ -366,13 +366,13 @@
         <v>34</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -380,70 +380,70 @@
         <v>35</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s" s="0">
         <v>33</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X3" t="s" s="0">
         <v>36</v>
@@ -455,10 +455,10 @@
         <v>34</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC3" t="s" s="0">
         <v>37</v>
@@ -469,13 +469,13 @@
         <v>38</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>30</v>
@@ -487,31 +487,31 @@
         <v>33</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" t="s" s="0">
         <v>30</v>
@@ -520,10 +520,10 @@
         <v>33</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U4" t="s" s="0">
         <v>33</v>
@@ -535,7 +535,7 @@
         <v>32</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="s" s="0">
         <v>34</v>
@@ -547,10 +547,10 @@
         <v>33</v>
       </c>
       <c r="AB4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AC4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -558,13 +558,13 @@
         <v>39</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>30</v>
@@ -576,10 +576,10 @@
         <v>30</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s" s="0">
         <v>37</v>
@@ -588,43 +588,43 @@
         <v>36</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S5" t="s" s="0">
         <v>37</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="U5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="W5" t="s" s="0">
         <v>36</v>
       </c>
       <c r="X5" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Y5" t="s" s="0">
         <v>34</v>
@@ -633,10 +633,10 @@
         <v>34</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC5" t="s" s="0">
         <v>36</v>
@@ -647,13 +647,13 @@
         <v>40</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>36</v>
@@ -662,40 +662,40 @@
         <v>30</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s" s="0">
         <v>36</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S6" t="s" s="0">
         <v>33</v>
@@ -704,16 +704,16 @@
         <v>30</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="V6" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="W6" t="s" s="0">
         <v>36</v>
       </c>
       <c r="X6" t="s" s="0">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="s" s="0">
         <v>34</v>
@@ -722,13 +722,13 @@
         <v>34</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
@@ -742,10 +742,10 @@
         <v>33</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>33</v>
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s" s="0">
         <v>33</v>
@@ -766,7 +766,7 @@
         <v>32</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M7" t="s" s="0">
         <v>33</v>
@@ -775,7 +775,7 @@
         <v>33</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P7" t="s" s="0">
         <v>33</v>
@@ -784,10 +784,10 @@
         <v>33</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T7" t="s" s="0">
         <v>33</v>
@@ -796,13 +796,13 @@
         <v>33</v>
       </c>
       <c r="V7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W7" t="s" s="0">
         <v>33</v>
       </c>
       <c r="X7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y7" t="s" s="0">
         <v>34</v>
@@ -811,13 +811,13 @@
         <v>34</v>
       </c>
       <c r="AA7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AB7" t="s" s="0">
         <v>33</v>
       </c>
       <c r="AC7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -825,52 +825,52 @@
         <v>42</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>36</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s" s="0">
         <v>36</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P8" t="s" s="0">
         <v>37</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R8" t="s" s="0">
         <v>36</v>
@@ -885,13 +885,13 @@
         <v>30</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y8" t="s" s="0">
         <v>34</v>
@@ -900,13 +900,13 @@
         <v>34</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -914,34 +914,34 @@
         <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>37</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L9" t="s" s="0">
         <v>37</v>
@@ -950,37 +950,37 @@
         <v>30</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S9" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W9" t="s" s="0">
         <v>36</v>
       </c>
       <c r="X9" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y9" t="s" s="0">
         <v>34</v>
@@ -995,7 +995,7 @@
         <v>37</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1003,73 +1003,73 @@
         <v>44</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s" s="0">
         <v>37</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R10" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V10" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="W10" t="s" s="0">
         <v>37</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y10" t="s" s="0">
         <v>34</v>
@@ -1078,13 +1078,13 @@
         <v>34</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC10" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -107,25 +107,25 @@
     <t>M1</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>M3</t>
   </si>
   <si>
     <t>DO</t>
   </si>
   <si>
-    <t>A1</t>
+    <t>Staff_2</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
   <si>
     <t>PH</t>
-  </si>
-  <si>
-    <t>Staff_2</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>A2</t>
   </si>
   <si>
     <t>Staff_3</t>
@@ -300,7 +300,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>32</v>
@@ -309,16 +309,16 @@
         <v>30</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s" s="0">
         <v>30</v>
@@ -330,22 +330,22 @@
         <v>30</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s" s="0">
         <v>30</v>
@@ -354,19 +354,19 @@
         <v>30</v>
       </c>
       <c r="W2" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB2" t="s" s="0">
         <v>30</v>
@@ -377,19 +377,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>30</v>
@@ -398,70 +398,70 @@
         <v>30</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="S3" t="s" s="0">
         <v>36</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X3" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y3" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Z3" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -472,85 +472,85 @@
         <v>33</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P4" t="s" s="0">
         <v>32</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U4" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="V4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="W4" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="Y4" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA4" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB4" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AC4" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -558,85 +558,85 @@
         <v>39</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s" s="0">
         <v>36</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="X5" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y5" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Z5" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC5" t="s" s="0">
         <v>36</v>
@@ -647,88 +647,88 @@
         <v>40</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s" s="0">
         <v>36</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V6" t="s" s="0">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="W6" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="X6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y6" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -736,88 +736,88 @@
         <v>41</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>32</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>33</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>31</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T7" t="s" s="0">
         <v>33</v>
       </c>
       <c r="U7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V7" t="s" s="0">
         <v>31</v>
       </c>
       <c r="W7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Z7" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="s" s="0">
         <v>31</v>
       </c>
       <c r="AB7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AC7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -825,88 +825,88 @@
         <v>42</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>36</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s" s="0">
         <v>36</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U8" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Z8" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -914,88 +914,88 @@
         <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V9" t="s" s="0">
         <v>33</v>
       </c>
       <c r="W9" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="X9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1003,88 +1003,88 @@
         <v>44</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R10" t="s" s="0">
         <v>37</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V10" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X10" t="s" s="0">
         <v>37</v>
       </c>
       <c r="Y10" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA10" t="s" s="0">
         <v>36</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC10" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -104,12 +104,12 @@
     <t>Staff_1</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>M3</t>
   </si>
   <si>
@@ -119,10 +119,10 @@
     <t>Staff_2</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>A2</t>
   </si>
   <si>
     <t>PH</t>
@@ -303,22 +303,22 @@
         <v>31</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>33</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s" s="0">
         <v>30</v>
@@ -327,52 +327,52 @@
         <v>30</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -380,43 +380,43 @@
         <v>34</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>35</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s" s="0">
         <v>30</v>
@@ -431,19 +431,19 @@
         <v>37</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X3" t="s" s="0">
         <v>37</v>
@@ -458,7 +458,7 @@
         <v>36</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AC3" t="s" s="0">
         <v>35</v>
@@ -472,34 +472,34 @@
         <v>33</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>32</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s" s="0">
         <v>31</v>
@@ -523,16 +523,16 @@
         <v>33</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="V4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W4" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X4" t="s" s="0">
         <v>37</v>
@@ -541,16 +541,16 @@
         <v>37</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AB4" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AC4" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -558,43 +558,43 @@
         <v>39</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>35</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O5" t="s" s="0">
         <v>36</v>
@@ -609,19 +609,19 @@
         <v>37</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U5" t="s" s="0">
         <v>36</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="X5" t="s" s="0">
         <v>37</v>
@@ -633,10 +633,10 @@
         <v>35</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC5" t="s" s="0">
         <v>36</v>
@@ -650,25 +650,25 @@
         <v>33</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>31</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s" s="0">
         <v>35</v>
@@ -677,58 +677,58 @@
         <v>36</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R6" t="s" s="0">
         <v>31</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V6" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="W6" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="X6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -736,40 +736,40 @@
         <v>41</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" t="s" s="0">
         <v>30</v>
@@ -778,40 +778,40 @@
         <v>33</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T7" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB7" t="s" s="0">
         <v>31</v>
@@ -825,7 +825,7 @@
         <v>42</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>35</v>
@@ -834,19 +834,19 @@
         <v>36</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s" s="0">
         <v>35</v>
@@ -855,58 +855,58 @@
         <v>36</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q8" t="s" s="0">
         <v>36</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U8" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Y8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="Z8" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -914,49 +914,49 @@
         <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>36</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O9" t="s" s="0">
         <v>33</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q9" t="s" s="0">
         <v>35</v>
@@ -965,37 +965,37 @@
         <v>31</v>
       </c>
       <c r="S9" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V9" t="s" s="0">
         <v>33</v>
       </c>
       <c r="W9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="X9" t="s" s="0">
         <v>35</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB9" t="s" s="0">
         <v>36</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1003,49 +1003,49 @@
         <v>44</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s" s="0">
         <v>36</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s" s="0">
         <v>35</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O10" t="s" s="0">
         <v>36</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q10" t="s" s="0">
         <v>37</v>
@@ -1054,19 +1054,19 @@
         <v>37</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V10" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X10" t="s" s="0">
         <v>37</v>
@@ -1075,10 +1075,10 @@
         <v>37</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB10" t="s" s="0">
         <v>35</v>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -110,19 +110,19 @@
     <t>M1</t>
   </si>
   <si>
+    <t>DO</t>
+  </si>
+  <si>
     <t>M3</t>
   </si>
   <si>
-    <t>DO</t>
-  </si>
-  <si>
     <t>Staff_2</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>A2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>PH</t>
@@ -294,43 +294,43 @@
         <v>30</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s" s="0">
         <v>31</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s" s="0">
         <v>30</v>
@@ -339,37 +339,37 @@
         <v>30</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y2" t="s" s="0">
         <v>31</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC2" t="s" s="0">
         <v>31</v>
@@ -380,25 +380,25 @@
         <v>34</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>36</v>
@@ -407,22 +407,22 @@
         <v>35</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s" s="0">
         <v>36</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="s" s="0">
         <v>37</v>
@@ -431,19 +431,19 @@
         <v>37</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X3" t="s" s="0">
         <v>37</v>
@@ -455,10 +455,10 @@
         <v>36</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC3" t="s" s="0">
         <v>35</v>
@@ -469,13 +469,13 @@
         <v>38</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>31</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>31</v>
@@ -487,31 +487,31 @@
         <v>30</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="s" s="0">
         <v>37</v>
@@ -520,7 +520,7 @@
         <v>37</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T4" t="s" s="0">
         <v>31</v>
@@ -529,10 +529,10 @@
         <v>30</v>
       </c>
       <c r="V4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W4" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X4" t="s" s="0">
         <v>37</v>
@@ -544,7 +544,7 @@
         <v>32</v>
       </c>
       <c r="AA4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB4" t="s" s="0">
         <v>30</v>
@@ -561,22 +561,22 @@
         <v>35</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>36</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s" s="0">
         <v>35</v>
@@ -585,22 +585,22 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q5" t="s" s="0">
         <v>37</v>
@@ -609,19 +609,19 @@
         <v>37</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V5" t="s" s="0">
         <v>36</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X5" t="s" s="0">
         <v>37</v>
@@ -633,10 +633,10 @@
         <v>35</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC5" t="s" s="0">
         <v>36</v>
@@ -647,28 +647,28 @@
         <v>40</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s" s="0">
         <v>35</v>
@@ -677,58 +677,58 @@
         <v>36</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s" s="0">
         <v>31</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="V6" t="s" s="0">
         <v>36</v>
       </c>
       <c r="W6" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="X6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y6" t="s" s="0">
         <v>35</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -745,28 +745,28 @@
         <v>33</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M7" t="s" s="0">
         <v>30</v>
@@ -775,7 +775,7 @@
         <v>30</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P7" t="s" s="0">
         <v>30</v>
@@ -784,40 +784,40 @@
         <v>30</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="T7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="V7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="AA7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC7" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -828,85 +828,85 @@
         <v>36</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N8" t="s" s="0">
         <v>31</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P8" t="s" s="0">
         <v>36</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U8" t="s" s="0">
         <v>31</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Z8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -914,37 +914,37 @@
         <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>36</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s" s="0">
         <v>35</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s" s="0">
         <v>35</v>
@@ -953,28 +953,28 @@
         <v>30</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S9" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V9" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W9" t="s" s="0">
         <v>36</v>
@@ -986,16 +986,16 @@
         <v>30</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1003,31 +1003,31 @@
         <v>44</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s" s="0">
         <v>36</v>
@@ -1036,13 +1036,13 @@
         <v>30</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P10" t="s" s="0">
         <v>35</v>
@@ -1054,16 +1054,16 @@
         <v>37</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="T10" t="s" s="0">
         <v>35</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V10" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="W10" t="s" s="0">
         <v>35</v>
@@ -1075,16 +1075,16 @@
         <v>37</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB10" t="s" s="0">
         <v>35</v>
       </c>
       <c r="AC10" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/alns/src/main/kotlin/output/output.xlsx
+++ b/alns/src/main/kotlin/output/output.xlsx
@@ -107,13 +107,13 @@
     <t>A1</t>
   </si>
   <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>M3</t>
   </si>
   <si>
     <t>Staff_2</t>
@@ -294,10 +294,10 @@
         <v>30</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>30</v>
@@ -309,25 +309,25 @@
         <v>33</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s" s="0">
         <v>33</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>33</v>
@@ -345,13 +345,13 @@
         <v>30</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s" s="0">
         <v>31</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W2" t="s" s="0">
         <v>30</v>
@@ -366,13 +366,13 @@
         <v>32</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB2" t="s" s="0">
         <v>33</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -383,46 +383,46 @@
         <v>35</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s" s="0">
         <v>36</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="s" s="0">
         <v>37</v>
@@ -431,19 +431,19 @@
         <v>37</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U3" t="s" s="0">
         <v>35</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X3" t="s" s="0">
         <v>37</v>
@@ -452,13 +452,13 @@
         <v>37</v>
       </c>
       <c r="Z3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC3" t="s" s="0">
         <v>35</v>
@@ -472,13 +472,13 @@
         <v>32</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>30</v>
@@ -490,28 +490,28 @@
         <v>31</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q4" t="s" s="0">
         <v>37</v>
@@ -520,19 +520,19 @@
         <v>37</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X4" t="s" s="0">
         <v>37</v>
@@ -541,16 +541,16 @@
         <v>37</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA4" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AC4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -558,49 +558,49 @@
         <v>39</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>35</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s" s="0">
         <v>35</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q5" t="s" s="0">
         <v>37</v>
@@ -612,13 +612,13 @@
         <v>35</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W5" t="s" s="0">
         <v>35</v>
@@ -630,16 +630,16 @@
         <v>37</v>
       </c>
       <c r="Z5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB5" t="s" s="0">
         <v>35</v>
       </c>
       <c r="AC5" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -647,88 +647,88 @@
         <v>40</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>35</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>35</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s" s="0">
         <v>36</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N6" t="s" s="0">
         <v>35</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q6" t="s" s="0">
         <v>35</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V6" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="W6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X6" t="s" s="0">
         <v>35</v>
       </c>
       <c r="Y6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB6" t="s" s="0">
         <v>35</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -742,19 +742,19 @@
         <v>30</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s" s="0">
         <v>30</v>
@@ -763,19 +763,19 @@
         <v>30</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P7" t="s" s="0">
         <v>30</v>
@@ -787,37 +787,37 @@
         <v>33</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="V7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="W7" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X7" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="AC7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -825,34 +825,34 @@
         <v>42</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s" s="0">
         <v>30</v>
@@ -861,7 +861,7 @@
         <v>30</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="O8" t="s" s="0">
         <v>32</v>
@@ -870,43 +870,43 @@
         <v>36</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U8" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z8" t="s" s="0">
         <v>36</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -920,25 +920,25 @@
         <v>35</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s" s="0">
         <v>35</v>
@@ -950,46 +950,46 @@
         <v>35</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S9" t="s" s="0">
         <v>35</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V9" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="W9" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB9" t="s" s="0">
         <v>30</v>
@@ -1003,46 +1003,46 @@
         <v>44</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>35</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s" s="0">
         <v>32</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K10" t="s" s="0">
         <v>36</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M10" t="s" s="0">
         <v>35</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P10" t="s" s="0">
         <v>35</v>
@@ -1054,19 +1054,19 @@
         <v>37</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V10" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X10" t="s" s="0">
         <v>37</v>
@@ -1081,7 +1081,7 @@
         <v>36</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC10" t="s" s="0">
         <v>32</v>
